--- a/GOA/Model runs/GOA_23.1.1/projected_catches.xlsx
+++ b/GOA/Model runs/GOA_23.1.1/projected_catches.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="MS" sheetId="1" r:id="rId1"/>
+    <sheet name="SS" sheetId="1" r:id="rId1"/>
+    <sheet name="MS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -434,6 +435,3261 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>117698.1974397333</v>
+      </c>
+      <c r="H2">
+        <v>9454.957968281675</v>
+      </c>
+      <c r="I2">
+        <v>661.1784955434417</v>
+      </c>
+      <c r="J2">
+        <v>1625.500161380282</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1978</v>
+      </c>
+      <c r="B3">
+        <v>95407.64617245903</v>
+      </c>
+      <c r="C3">
+        <v>8409</v>
+      </c>
+      <c r="D3">
+        <v>3263</v>
+      </c>
+      <c r="E3">
+        <v>8927</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>95197.58476551778</v>
+      </c>
+      <c r="H3">
+        <v>8418.310654130693</v>
+      </c>
+      <c r="I3">
+        <v>3280.032387962805</v>
+      </c>
+      <c r="J3">
+        <v>8920.233636630139</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1979</v>
+      </c>
+      <c r="B4">
+        <v>106160.7093603184</v>
+      </c>
+      <c r="C4">
+        <v>7579</v>
+      </c>
+      <c r="D4">
+        <v>3790</v>
+      </c>
+      <c r="E4">
+        <v>11114</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>106018.4721345809</v>
+      </c>
+      <c r="H4">
+        <v>7590.713930558528</v>
+      </c>
+      <c r="I4">
+        <v>3809.879616410513</v>
+      </c>
+      <c r="J4">
+        <v>11113.22101223998</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1980</v>
+      </c>
+      <c r="B5">
+        <v>115157.6664977842</v>
+      </c>
+      <c r="C5">
+        <v>7848</v>
+      </c>
+      <c r="D5">
+        <v>9851</v>
+      </c>
+      <c r="E5">
+        <v>25494</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>115194.6068208264</v>
+      </c>
+      <c r="H5">
+        <v>7858.463392204945</v>
+      </c>
+      <c r="I5">
+        <v>9871.44721556593</v>
+      </c>
+      <c r="J5">
+        <v>25475.57696590147</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1981</v>
+      </c>
+      <c r="B6">
+        <v>147818.319530749</v>
+      </c>
+      <c r="C6">
+        <v>7433</v>
+      </c>
+      <c r="D6">
+        <v>10485</v>
+      </c>
+      <c r="E6">
+        <v>25646</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>147926.7258877945</v>
+      </c>
+      <c r="H6">
+        <v>7444.573464978027</v>
+      </c>
+      <c r="I6">
+        <v>10499.51405553372</v>
+      </c>
+      <c r="J6">
+        <v>25586.4692825705</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1982</v>
+      </c>
+      <c r="B7">
+        <v>169045.2634976098</v>
+      </c>
+      <c r="C7">
+        <v>4639</v>
+      </c>
+      <c r="D7">
+        <v>6680</v>
+      </c>
+      <c r="E7">
+        <v>22785</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>169156.6890324976</v>
+      </c>
+      <c r="H7">
+        <v>4656.696250962311</v>
+      </c>
+      <c r="I7">
+        <v>6706.947538479801</v>
+      </c>
+      <c r="J7">
+        <v>22761.69551363357</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1983</v>
+      </c>
+      <c r="B8">
+        <v>215624.5390028036</v>
+      </c>
+      <c r="C8">
+        <v>6331</v>
+      </c>
+      <c r="D8">
+        <v>9512</v>
+      </c>
+      <c r="E8">
+        <v>27028</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>215337.818004331</v>
+      </c>
+      <c r="H8">
+        <v>6345.586860911433</v>
+      </c>
+      <c r="I8">
+        <v>9543.272022269852</v>
+      </c>
+      <c r="J8">
+        <v>27000.63581944377</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1984</v>
+      </c>
+      <c r="B9">
+        <v>307540.7905677962</v>
+      </c>
+      <c r="C9">
+        <v>3457</v>
+      </c>
+      <c r="D9">
+        <v>8806</v>
+      </c>
+      <c r="E9">
+        <v>15092</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>306571.0490195155</v>
+      </c>
+      <c r="H9">
+        <v>3475.961495815112</v>
+      </c>
+      <c r="I9">
+        <v>8844.299902241428</v>
+      </c>
+      <c r="J9">
+        <v>15111.93711801035</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1985</v>
+      </c>
+      <c r="B10">
+        <v>286899.7784106667</v>
+      </c>
+      <c r="C10">
+        <v>1539</v>
+      </c>
+      <c r="D10">
+        <v>4876</v>
+      </c>
+      <c r="E10">
+        <v>9552</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>286029.836364476</v>
+      </c>
+      <c r="H10">
+        <v>1553.597327826587</v>
+      </c>
+      <c r="I10">
+        <v>4915.436451550416</v>
+      </c>
+      <c r="J10">
+        <v>9594.715060138195</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1986</v>
+      </c>
+      <c r="B11">
+        <v>86909.88938541508</v>
+      </c>
+      <c r="C11">
+        <v>1221</v>
+      </c>
+      <c r="D11">
+        <v>6851</v>
+      </c>
+      <c r="E11">
+        <v>18161</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>87100.4354371322</v>
+      </c>
+      <c r="H11">
+        <v>1234.119314210357</v>
+      </c>
+      <c r="I11">
+        <v>6905.030228888086</v>
+      </c>
+      <c r="J11">
+        <v>18248.15726125731</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1987</v>
+      </c>
+      <c r="B12">
+        <v>68070.30516623201</v>
+      </c>
+      <c r="C12">
+        <v>4963</v>
+      </c>
+      <c r="D12">
+        <v>22487</v>
+      </c>
+      <c r="E12">
+        <v>9809</v>
+      </c>
+      <c r="F12">
+        <v>643</v>
+      </c>
+      <c r="G12">
+        <v>68308.57516823967</v>
+      </c>
+      <c r="H12">
+        <v>4981.159768083472</v>
+      </c>
+      <c r="I12">
+        <v>22536.192680651</v>
+      </c>
+      <c r="J12">
+        <v>9842.226881934397</v>
+      </c>
+      <c r="K12">
+        <v>653.8429378810304</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1988</v>
+      </c>
+      <c r="B13">
+        <v>63391.0206707928</v>
+      </c>
+      <c r="C13">
+        <v>5138</v>
+      </c>
+      <c r="D13">
+        <v>27145</v>
+      </c>
+      <c r="E13">
+        <v>5236</v>
+      </c>
+      <c r="F13">
+        <v>1421</v>
+      </c>
+      <c r="G13">
+        <v>63616.68767472552</v>
+      </c>
+      <c r="H13">
+        <v>5156.317383772343</v>
+      </c>
+      <c r="I13">
+        <v>27027.63090415645</v>
+      </c>
+      <c r="J13">
+        <v>5265.057331168413</v>
+      </c>
+      <c r="K13">
+        <v>1439.341592527099</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1989</v>
+      </c>
+      <c r="B14">
+        <v>75584.9395796571</v>
+      </c>
+      <c r="C14">
+        <v>2584</v>
+      </c>
+      <c r="D14">
+        <v>37638</v>
+      </c>
+      <c r="E14">
+        <v>5280</v>
+      </c>
+      <c r="F14">
+        <v>375</v>
+      </c>
+      <c r="G14">
+        <v>75724.7403504019</v>
+      </c>
+      <c r="H14">
+        <v>2602.696649969058</v>
+      </c>
+      <c r="I14">
+        <v>37329.57343372447</v>
+      </c>
+      <c r="J14">
+        <v>5312.87343175736</v>
+      </c>
+      <c r="K14">
+        <v>382.7707152138889</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1990</v>
+      </c>
+      <c r="B15">
+        <v>88269.24613764741</v>
+      </c>
+      <c r="C15">
+        <v>7706</v>
+      </c>
+      <c r="D15">
+        <v>59190</v>
+      </c>
+      <c r="E15">
+        <v>7666</v>
+      </c>
+      <c r="F15">
+        <v>5661</v>
+      </c>
+      <c r="G15">
+        <v>88399.34576367575</v>
+      </c>
+      <c r="H15">
+        <v>7721.333712975406</v>
+      </c>
+      <c r="I15">
+        <v>58514.41387712773</v>
+      </c>
+      <c r="J15">
+        <v>7700.272641208253</v>
+      </c>
+      <c r="K15">
+        <v>5701.261290734678</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1991</v>
+      </c>
+      <c r="B16">
+        <v>100488.4</v>
+      </c>
+      <c r="C16">
+        <v>17388</v>
+      </c>
+      <c r="D16">
+        <v>58101.5</v>
+      </c>
+      <c r="E16">
+        <v>7734.9</v>
+      </c>
+      <c r="F16">
+        <v>10464.1</v>
+      </c>
+      <c r="G16">
+        <v>100429.2577825119</v>
+      </c>
+      <c r="H16">
+        <v>17353.8546013804</v>
+      </c>
+      <c r="I16">
+        <v>57651.59339299582</v>
+      </c>
+      <c r="J16">
+        <v>7770.27133641289</v>
+      </c>
+      <c r="K16">
+        <v>10503.12519201476</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1992</v>
+      </c>
+      <c r="B17">
+        <v>90857.60000000002</v>
+      </c>
+      <c r="C17">
+        <v>21916</v>
+      </c>
+      <c r="D17">
+        <v>54762.2</v>
+      </c>
+      <c r="E17">
+        <v>15830.5</v>
+      </c>
+      <c r="F17">
+        <v>10154.4</v>
+      </c>
+      <c r="G17">
+        <v>90800.8721877662</v>
+      </c>
+      <c r="H17">
+        <v>21852.94327479181</v>
+      </c>
+      <c r="I17">
+        <v>54367.35400795771</v>
+      </c>
+      <c r="J17">
+        <v>15827.22856585752</v>
+      </c>
+      <c r="K17">
+        <v>10186.87367426099</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>1993</v>
+      </c>
+      <c r="B18">
+        <v>108908.8600000001</v>
+      </c>
+      <c r="C18">
+        <v>19078</v>
+      </c>
+      <c r="D18">
+        <v>37809.5</v>
+      </c>
+      <c r="E18">
+        <v>8970.379999999999</v>
+      </c>
+      <c r="F18">
+        <v>9707.620000000001</v>
+      </c>
+      <c r="G18">
+        <v>108618.6358608317</v>
+      </c>
+      <c r="H18">
+        <v>19046.22027752233</v>
+      </c>
+      <c r="I18">
+        <v>37707.49379459961</v>
+      </c>
+      <c r="J18">
+        <v>8999.938050201774</v>
+      </c>
+      <c r="K18">
+        <v>9738.474758275652</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>1994</v>
+      </c>
+      <c r="B19">
+        <v>107335.14</v>
+      </c>
+      <c r="C19">
+        <v>22918</v>
+      </c>
+      <c r="D19">
+        <v>31446.7</v>
+      </c>
+      <c r="E19">
+        <v>6877.4</v>
+      </c>
+      <c r="F19">
+        <v>9160.540000000001</v>
+      </c>
+      <c r="G19">
+        <v>106766.5327003594</v>
+      </c>
+      <c r="H19">
+        <v>22864.70007158751</v>
+      </c>
+      <c r="I19">
+        <v>31405.9115385881</v>
+      </c>
+      <c r="J19">
+        <v>6911.14969341233</v>
+      </c>
+      <c r="K19">
+        <v>9194.104193209787</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>1995</v>
+      </c>
+      <c r="B20">
+        <v>72618.21999999999</v>
+      </c>
+      <c r="C20">
+        <v>18279</v>
+      </c>
+      <c r="D20">
+        <v>41875</v>
+      </c>
+      <c r="E20">
+        <v>11055.3</v>
+      </c>
+      <c r="F20">
+        <v>16054.9</v>
+      </c>
+      <c r="G20">
+        <v>72476.50610629248</v>
+      </c>
+      <c r="H20">
+        <v>18260.72906185441</v>
+      </c>
+      <c r="I20">
+        <v>41335.14909508373</v>
+      </c>
+      <c r="J20">
+        <v>11048.30708759803</v>
+      </c>
+      <c r="K20">
+        <v>15986.48698604935</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>1996</v>
+      </c>
+      <c r="B21">
+        <v>51263.40999999998</v>
+      </c>
+      <c r="C21">
+        <v>22484</v>
+      </c>
+      <c r="D21">
+        <v>45990.5</v>
+      </c>
+      <c r="E21">
+        <v>10249.3</v>
+      </c>
+      <c r="F21">
+        <v>12040.1</v>
+      </c>
+      <c r="G21">
+        <v>51256.61695312071</v>
+      </c>
+      <c r="H21">
+        <v>22450.34914417042</v>
+      </c>
+      <c r="I21">
+        <v>45165.84739123532</v>
+      </c>
+      <c r="J21">
+        <v>10234.31771418177</v>
+      </c>
+      <c r="K21">
+        <v>12000.62164939264</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>1997</v>
+      </c>
+      <c r="B22">
+        <v>90130.30000000002</v>
+      </c>
+      <c r="C22">
+        <v>16363</v>
+      </c>
+      <c r="D22">
+        <v>48405.9</v>
+      </c>
+      <c r="E22">
+        <v>11004.2</v>
+      </c>
+      <c r="F22">
+        <v>9065.42</v>
+      </c>
+      <c r="G22">
+        <v>89636.90126496043</v>
+      </c>
+      <c r="H22">
+        <v>16364.52908930034</v>
+      </c>
+      <c r="I22">
+        <v>47200.24402387232</v>
+      </c>
+      <c r="J22">
+        <v>10956.16706528961</v>
+      </c>
+      <c r="K22">
+        <v>9035.013752774717</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>1998</v>
+      </c>
+      <c r="B23">
+        <v>125460.32</v>
+      </c>
+      <c r="C23">
+        <v>12958</v>
+      </c>
+      <c r="D23">
+        <v>41569.7</v>
+      </c>
+      <c r="E23">
+        <v>10041.1</v>
+      </c>
+      <c r="F23">
+        <v>10510.3</v>
+      </c>
+      <c r="G23">
+        <v>124743.0938753899</v>
+      </c>
+      <c r="H23">
+        <v>12974.08448540069</v>
+      </c>
+      <c r="I23">
+        <v>40694.71613700406</v>
+      </c>
+      <c r="J23">
+        <v>10001.338731357</v>
+      </c>
+      <c r="K23">
+        <v>10448.33271089809</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>1999</v>
+      </c>
+      <c r="B24">
+        <v>95637.56999999996</v>
+      </c>
+      <c r="C24">
+        <v>16142</v>
+      </c>
+      <c r="D24">
+        <v>37174.7</v>
+      </c>
+      <c r="E24">
+        <v>12425</v>
+      </c>
+      <c r="F24">
+        <v>19014.8</v>
+      </c>
+      <c r="G24">
+        <v>95425.54265120468</v>
+      </c>
+      <c r="H24">
+        <v>16130.14072864218</v>
+      </c>
+      <c r="I24">
+        <v>36923.62667434826</v>
+      </c>
+      <c r="J24">
+        <v>12403.99341680125</v>
+      </c>
+      <c r="K24">
+        <v>18890.43938507247</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2000</v>
+      </c>
+      <c r="B25">
+        <v>73080.15000000002</v>
+      </c>
+      <c r="C25">
+        <v>24211</v>
+      </c>
+      <c r="D25">
+        <v>25456.9</v>
+      </c>
+      <c r="E25">
+        <v>11699.8</v>
+      </c>
+      <c r="F25">
+        <v>17350.8</v>
+      </c>
+      <c r="G25">
+        <v>73149.83815653442</v>
+      </c>
+      <c r="H25">
+        <v>24133.70403186564</v>
+      </c>
+      <c r="I25">
+        <v>25511.96114498729</v>
+      </c>
+      <c r="J25">
+        <v>11717.89491099391</v>
+      </c>
+      <c r="K25">
+        <v>17362.93083412079</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2001</v>
+      </c>
+      <c r="B26">
+        <v>72076.54000000002</v>
+      </c>
+      <c r="C26">
+        <v>19926</v>
+      </c>
+      <c r="D26">
+        <v>24386.2</v>
+      </c>
+      <c r="E26">
+        <v>10061.7</v>
+      </c>
+      <c r="F26">
+        <v>7170.65</v>
+      </c>
+      <c r="G26">
+        <v>72120.47285995484</v>
+      </c>
+      <c r="H26">
+        <v>19884.75115481249</v>
+      </c>
+      <c r="I26">
+        <v>24189.49711868111</v>
+      </c>
+      <c r="J26">
+        <v>10034.59404353332</v>
+      </c>
+      <c r="K26">
+        <v>7170.420812770082</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2002</v>
+      </c>
+      <c r="B27">
+        <v>51933.51999999999</v>
+      </c>
+      <c r="C27">
+        <v>21213</v>
+      </c>
+      <c r="D27">
+        <v>19810.2</v>
+      </c>
+      <c r="E27">
+        <v>14841.6</v>
+      </c>
+      <c r="F27">
+        <v>7693.58</v>
+      </c>
+      <c r="G27">
+        <v>52032.87689260564</v>
+      </c>
+      <c r="H27">
+        <v>21160.0476624819</v>
+      </c>
+      <c r="I27">
+        <v>19561.74496689142</v>
+      </c>
+      <c r="J27">
+        <v>14684.54512553918</v>
+      </c>
+      <c r="K27">
+        <v>7669.757121666597</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2003</v>
+      </c>
+      <c r="B28">
+        <v>50683.87500000001</v>
+      </c>
+      <c r="C28">
+        <v>30254</v>
+      </c>
+      <c r="D28">
+        <v>18885.5</v>
+      </c>
+      <c r="E28">
+        <v>12988</v>
+      </c>
+      <c r="F28">
+        <v>20708</v>
+      </c>
+      <c r="G28">
+        <v>50875.03313993037</v>
+      </c>
+      <c r="H28">
+        <v>30155.29125677433</v>
+      </c>
+      <c r="I28">
+        <v>18592.17207998066</v>
+      </c>
+      <c r="J28">
+        <v>12843.52753556315</v>
+      </c>
+      <c r="K28">
+        <v>20312.80950707073</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2004</v>
+      </c>
+      <c r="B29">
+        <v>63844.14500000006</v>
+      </c>
+      <c r="C29">
+        <v>15758</v>
+      </c>
+      <c r="D29">
+        <v>17512.6</v>
+      </c>
+      <c r="E29">
+        <v>13542.7</v>
+      </c>
+      <c r="F29">
+        <v>25568.3</v>
+      </c>
+      <c r="G29">
+        <v>64033.47805632964</v>
+      </c>
+      <c r="H29">
+        <v>15758.53733601192</v>
+      </c>
+      <c r="I29">
+        <v>17250.35638496761</v>
+      </c>
+      <c r="J29">
+        <v>13386.15872230168</v>
+      </c>
+      <c r="K29">
+        <v>25048.40773007619</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2005</v>
+      </c>
+      <c r="B30">
+        <v>80977.996</v>
+      </c>
+      <c r="C30">
+        <v>19989</v>
+      </c>
+      <c r="D30">
+        <v>14549.2</v>
+      </c>
+      <c r="E30">
+        <v>8633.549999999999</v>
+      </c>
+      <c r="F30">
+        <v>24401.6</v>
+      </c>
+      <c r="G30">
+        <v>81265.0635463777</v>
+      </c>
+      <c r="H30">
+        <v>19976.62469878159</v>
+      </c>
+      <c r="I30">
+        <v>14403.27911598429</v>
+      </c>
+      <c r="J30">
+        <v>8585.393806434991</v>
+      </c>
+      <c r="K30">
+        <v>23977.85179722386</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2006</v>
+      </c>
+      <c r="B31">
+        <v>71975.88300000002</v>
+      </c>
+      <c r="C31">
+        <v>27739</v>
+      </c>
+      <c r="D31">
+        <v>13131.8</v>
+      </c>
+      <c r="E31">
+        <v>11079</v>
+      </c>
+      <c r="F31">
+        <v>23686.3</v>
+      </c>
+      <c r="G31">
+        <v>72222.17697489254</v>
+      </c>
+      <c r="H31">
+        <v>27688.28166271689</v>
+      </c>
+      <c r="I31">
+        <v>13031.92287107928</v>
+      </c>
+      <c r="J31">
+        <v>10983.35669370848</v>
+      </c>
+      <c r="K31">
+        <v>23302.10191816314</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>2007</v>
+      </c>
+      <c r="B32">
+        <v>52713.97199999998</v>
+      </c>
+      <c r="C32">
+        <v>25508</v>
+      </c>
+      <c r="D32">
+        <v>14775.4</v>
+      </c>
+      <c r="E32">
+        <v>12535.2</v>
+      </c>
+      <c r="F32">
+        <v>24950.3</v>
+      </c>
+      <c r="G32">
+        <v>52855.54022987205</v>
+      </c>
+      <c r="H32">
+        <v>25491.61944041864</v>
+      </c>
+      <c r="I32">
+        <v>14566.32080696834</v>
+      </c>
+      <c r="J32">
+        <v>12350.53811099218</v>
+      </c>
+      <c r="K32">
+        <v>24123.65844871549</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2008</v>
+      </c>
+      <c r="B33">
+        <v>52583.56499999999</v>
+      </c>
+      <c r="C33">
+        <v>29270</v>
+      </c>
+      <c r="D33">
+        <v>20293.4</v>
+      </c>
+      <c r="E33">
+        <v>14053.4</v>
+      </c>
+      <c r="F33">
+        <v>24667.2</v>
+      </c>
+      <c r="G33">
+        <v>52666.48987020046</v>
+      </c>
+      <c r="H33">
+        <v>29243.0682206659</v>
+      </c>
+      <c r="I33">
+        <v>19637.65696250364</v>
+      </c>
+      <c r="J33">
+        <v>13698.11832840066</v>
+      </c>
+      <c r="K33">
+        <v>23470.0718821188</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>2009</v>
+      </c>
+      <c r="B34">
+        <v>44246.74500000005</v>
+      </c>
+      <c r="C34">
+        <v>24912</v>
+      </c>
+      <c r="D34">
+        <v>13976.2</v>
+      </c>
+      <c r="E34">
+        <v>17350.2</v>
+      </c>
+      <c r="F34">
+        <v>21869.9</v>
+      </c>
+      <c r="G34">
+        <v>44390.804070771</v>
+      </c>
+      <c r="H34">
+        <v>24906.66678883698</v>
+      </c>
+      <c r="I34">
+        <v>13698.35126571849</v>
+      </c>
+      <c r="J34">
+        <v>16851.87736540422</v>
+      </c>
+      <c r="K34">
+        <v>20996.37778199607</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35">
+        <v>76747.84714112402</v>
+      </c>
+      <c r="C35">
+        <v>24496</v>
+      </c>
+      <c r="D35">
+        <v>21765.2</v>
+      </c>
+      <c r="E35">
+        <v>21840.2</v>
+      </c>
+      <c r="F35">
+        <v>34720</v>
+      </c>
+      <c r="G35">
+        <v>76832.97889063295</v>
+      </c>
+      <c r="H35">
+        <v>24492.06585320784</v>
+      </c>
+      <c r="I35">
+        <v>21548.98337060072</v>
+      </c>
+      <c r="J35">
+        <v>21609.54791401221</v>
+      </c>
+      <c r="K35">
+        <v>34117.95347767846</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>2011</v>
+      </c>
+      <c r="B36">
+        <v>81503.24775951338</v>
+      </c>
+      <c r="C36">
+        <v>31139</v>
+      </c>
+      <c r="D36">
+        <v>16452.9</v>
+      </c>
+      <c r="E36">
+        <v>23051.7</v>
+      </c>
+      <c r="F36">
+        <v>45907.8</v>
+      </c>
+      <c r="G36">
+        <v>81640.82634452429</v>
+      </c>
+      <c r="H36">
+        <v>31120.74957240711</v>
+      </c>
+      <c r="I36">
+        <v>16565.75805780921</v>
+      </c>
+      <c r="J36">
+        <v>23248.1304448347</v>
+      </c>
+      <c r="K36">
+        <v>46928.2563172326</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37">
+        <v>103953.5725017306</v>
+      </c>
+      <c r="C37">
+        <v>20886</v>
+      </c>
+      <c r="D37">
+        <v>20071.8</v>
+      </c>
+      <c r="E37">
+        <v>20668.3</v>
+      </c>
+      <c r="F37">
+        <v>37177.9</v>
+      </c>
+      <c r="G37">
+        <v>104027.9051094264</v>
+      </c>
+      <c r="H37">
+        <v>20898.12897946619</v>
+      </c>
+      <c r="I37">
+        <v>20469.8889541236</v>
+      </c>
+      <c r="J37">
+        <v>21104.31463132195</v>
+      </c>
+      <c r="K37">
+        <v>38945.38055081528</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>2013</v>
+      </c>
+      <c r="B38">
+        <v>96362.75394170119</v>
+      </c>
+      <c r="C38">
+        <v>21967</v>
+      </c>
+      <c r="D38">
+        <v>21700.4</v>
+      </c>
+      <c r="E38">
+        <v>15733.4</v>
+      </c>
+      <c r="F38">
+        <v>31166.4</v>
+      </c>
+      <c r="G38">
+        <v>96645.73925006109</v>
+      </c>
+      <c r="H38">
+        <v>21960.70793014696</v>
+      </c>
+      <c r="I38">
+        <v>22346.4650736851</v>
+      </c>
+      <c r="J38">
+        <v>16060.71616930519</v>
+      </c>
+      <c r="K38">
+        <v>32685.54486525889</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39">
+        <v>142640.3041127024</v>
+      </c>
+      <c r="C39">
+        <v>36662</v>
+      </c>
+      <c r="D39">
+        <v>26798.4</v>
+      </c>
+      <c r="E39">
+        <v>19639.7</v>
+      </c>
+      <c r="F39">
+        <v>38402</v>
+      </c>
+      <c r="G39">
+        <v>143858.6972788047</v>
+      </c>
+      <c r="H39">
+        <v>36585.50008289606</v>
+      </c>
+      <c r="I39">
+        <v>27341.12303334938</v>
+      </c>
+      <c r="J39">
+        <v>19887.24519926256</v>
+      </c>
+      <c r="K39">
+        <v>39388.05686795454</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>2015</v>
+      </c>
+      <c r="B40">
+        <v>167549.339570058</v>
+      </c>
+      <c r="C40">
+        <v>19418</v>
+      </c>
+      <c r="D40">
+        <v>22269</v>
+      </c>
+      <c r="E40">
+        <v>16847.6</v>
+      </c>
+      <c r="F40">
+        <v>40372.1</v>
+      </c>
+      <c r="G40">
+        <v>169021.3821391211</v>
+      </c>
+      <c r="H40">
+        <v>19438.98477572327</v>
+      </c>
+      <c r="I40">
+        <v>22279.6012504127</v>
+      </c>
+      <c r="J40">
+        <v>16790.06471641021</v>
+      </c>
+      <c r="K40">
+        <v>39811.45447206045</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>2016</v>
+      </c>
+      <c r="B41">
+        <v>177128.784029814</v>
+      </c>
+      <c r="C41">
+        <v>20057</v>
+      </c>
+      <c r="D41">
+        <v>15216.9</v>
+      </c>
+      <c r="E41">
+        <v>11012.1</v>
+      </c>
+      <c r="F41">
+        <v>37857.8</v>
+      </c>
+      <c r="G41">
+        <v>176937.2405587596</v>
+      </c>
+      <c r="H41">
+        <v>20076.23469524766</v>
+      </c>
+      <c r="I41">
+        <v>15335.55087118541</v>
+      </c>
+      <c r="J41">
+        <v>11076.97967874543</v>
+      </c>
+      <c r="K41">
+        <v>38027.53833299004</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>2017</v>
+      </c>
+      <c r="B42">
+        <v>186154.8863262226</v>
+      </c>
+      <c r="C42">
+        <v>27144</v>
+      </c>
+      <c r="D42">
+        <v>13041</v>
+      </c>
+      <c r="E42">
+        <v>9256.75</v>
+      </c>
+      <c r="F42">
+        <v>26436.4</v>
+      </c>
+      <c r="G42">
+        <v>184998.308405646</v>
+      </c>
+      <c r="H42">
+        <v>27092.09973443172</v>
+      </c>
+      <c r="I42">
+        <v>13417.92590707978</v>
+      </c>
+      <c r="J42">
+        <v>9477.166442921678</v>
+      </c>
+      <c r="K42">
+        <v>28385.25135413935</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43">
+        <v>158069.530370013</v>
+      </c>
+      <c r="C43">
+        <v>18965</v>
+      </c>
+      <c r="D43">
+        <v>3817.98</v>
+      </c>
+      <c r="E43">
+        <v>3659.52</v>
+      </c>
+      <c r="F43">
+        <v>7672.92</v>
+      </c>
+      <c r="G43">
+        <v>157071.62451138</v>
+      </c>
+      <c r="H43">
+        <v>18948.89230812405</v>
+      </c>
+      <c r="I43">
+        <v>3881.407987581623</v>
+      </c>
+      <c r="J43">
+        <v>3715.355370338815</v>
+      </c>
+      <c r="K43">
+        <v>7910.665247031996</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>2019</v>
+      </c>
+      <c r="B44">
+        <v>120242.8193325952</v>
+      </c>
+      <c r="C44">
+        <v>24714</v>
+      </c>
+      <c r="D44">
+        <v>4534.53</v>
+      </c>
+      <c r="E44">
+        <v>3628.35</v>
+      </c>
+      <c r="F44">
+        <v>7552.92</v>
+      </c>
+      <c r="G44">
+        <v>119847.720358394</v>
+      </c>
+      <c r="H44">
+        <v>24624.69070029118</v>
+      </c>
+      <c r="I44">
+        <v>4597.5595153482</v>
+      </c>
+      <c r="J44">
+        <v>3666.675178905494</v>
+      </c>
+      <c r="K44">
+        <v>7690.731474594729</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>2020</v>
+      </c>
+      <c r="B45">
+        <v>107470.8646368267</v>
+      </c>
+      <c r="C45">
+        <v>21243</v>
+      </c>
+      <c r="D45">
+        <v>3427.15</v>
+      </c>
+      <c r="E45">
+        <v>1604.54</v>
+      </c>
+      <c r="F45">
+        <v>1809.34</v>
+      </c>
+      <c r="G45">
+        <v>107085.1234437294</v>
+      </c>
+      <c r="H45">
+        <v>21179.85929015636</v>
+      </c>
+      <c r="I45">
+        <v>3441.386093469997</v>
+      </c>
+      <c r="J45">
+        <v>1614.346107550463</v>
+      </c>
+      <c r="K45">
+        <v>1818.22072794426</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>2021</v>
+      </c>
+      <c r="B46">
+        <v>101160.4273126095</v>
+      </c>
+      <c r="C46">
+        <v>9988</v>
+      </c>
+      <c r="D46">
+        <v>5989.22</v>
+      </c>
+      <c r="E46">
+        <v>5529.59</v>
+      </c>
+      <c r="F46">
+        <v>7657.11</v>
+      </c>
+      <c r="G46">
+        <v>100848.6178311646</v>
+      </c>
+      <c r="H46">
+        <v>9994.235738708101</v>
+      </c>
+      <c r="I46">
+        <v>5957.476458802154</v>
+      </c>
+      <c r="J46">
+        <v>5495.094943120545</v>
+      </c>
+      <c r="K46">
+        <v>7554.344605622185</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>2022</v>
+      </c>
+      <c r="B47">
+        <v>132698</v>
+      </c>
+      <c r="C47">
+        <v>11630.95</v>
+      </c>
+      <c r="D47">
+        <v>8210.219999999999</v>
+      </c>
+      <c r="E47">
+        <v>7145.17</v>
+      </c>
+      <c r="F47">
+        <v>10570</v>
+      </c>
+      <c r="G47">
+        <v>131687.2877384344</v>
+      </c>
+      <c r="H47">
+        <v>11628.60335729918</v>
+      </c>
+      <c r="I47">
+        <v>8160.021377246309</v>
+      </c>
+      <c r="J47">
+        <v>7108.91894880375</v>
+      </c>
+      <c r="K47">
+        <v>10463.54226016462</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48">
+        <v>145215</v>
+      </c>
+      <c r="C48">
+        <v>9028.888000000001</v>
+      </c>
+      <c r="D48">
+        <v>5034.48</v>
+      </c>
+      <c r="E48">
+        <v>6021.92</v>
+      </c>
+      <c r="F48">
+        <v>7175.18</v>
+      </c>
+      <c r="G48">
+        <v>144404.3504764064</v>
+      </c>
+      <c r="H48">
+        <v>9037.931065857449</v>
+      </c>
+      <c r="I48">
+        <v>5052.712545540299</v>
+      </c>
+      <c r="J48">
+        <v>6029.920650724615</v>
+      </c>
+      <c r="K48">
+        <v>7185.963724146292</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="G49">
+        <v>283122.6831699273</v>
+      </c>
+      <c r="H49">
+        <v>121593.6530999784</v>
+      </c>
+      <c r="I49">
+        <v>23680.92751057524</v>
+      </c>
+      <c r="J49">
+        <v>22407.70659221242</v>
+      </c>
+      <c r="K49">
+        <v>31093.62565821174</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>2025</v>
+      </c>
+      <c r="G50">
+        <v>182744.3230265661</v>
+      </c>
+      <c r="H50">
+        <v>105398.5191522989</v>
+      </c>
+      <c r="I50">
+        <v>16986.96256563959</v>
+      </c>
+      <c r="J50">
+        <v>15900.27955520181</v>
+      </c>
+      <c r="K50">
+        <v>21139.34114823915</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>2026</v>
+      </c>
+      <c r="G51">
+        <v>156320.0876374513</v>
+      </c>
+      <c r="H51">
+        <v>93407.06445304399</v>
+      </c>
+      <c r="I51">
+        <v>15312.44125189551</v>
+      </c>
+      <c r="J51">
+        <v>13863.61522205354</v>
+      </c>
+      <c r="K51">
+        <v>17837.14086648814</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>2027</v>
+      </c>
+      <c r="G52">
+        <v>202349.987142485</v>
+      </c>
+      <c r="H52">
+        <v>84761.9701797157</v>
+      </c>
+      <c r="I52">
+        <v>17529.28950838513</v>
+      </c>
+      <c r="J52">
+        <v>16476.60044762955</v>
+      </c>
+      <c r="K52">
+        <v>20566.27826613684</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>2028</v>
+      </c>
+      <c r="G53">
+        <v>233636.5466106286</v>
+      </c>
+      <c r="H53">
+        <v>79014.40522650808</v>
+      </c>
+      <c r="I53">
+        <v>20570.16671120532</v>
+      </c>
+      <c r="J53">
+        <v>19902.82533644858</v>
+      </c>
+      <c r="K53">
+        <v>26082.81268369565</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>2029</v>
+      </c>
+      <c r="G54">
+        <v>253390.6807096753</v>
+      </c>
+      <c r="H54">
+        <v>75547.46047143544</v>
+      </c>
+      <c r="I54">
+        <v>22201.26250547546</v>
+      </c>
+      <c r="J54">
+        <v>21470.0648042768</v>
+      </c>
+      <c r="K54">
+        <v>29040.53486856277</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>2030</v>
+      </c>
+      <c r="G55">
+        <v>264583.0787088141</v>
+      </c>
+      <c r="H55">
+        <v>73894.83616459931</v>
+      </c>
+      <c r="I55">
+        <v>22832.06823069989</v>
+      </c>
+      <c r="J55">
+        <v>22036.54179747719</v>
+      </c>
+      <c r="K55">
+        <v>29872.03154977927</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>2031</v>
+      </c>
+      <c r="G56">
+        <v>275708.3776675788</v>
+      </c>
+      <c r="H56">
+        <v>73513.59338647046</v>
+      </c>
+      <c r="I56">
+        <v>23061.60203307583</v>
+      </c>
+      <c r="J56">
+        <v>22239.3060003601</v>
+      </c>
+      <c r="K56">
+        <v>30082.27882255071</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>2032</v>
+      </c>
+      <c r="G57">
+        <v>280900.7350619435</v>
+      </c>
+      <c r="H57">
+        <v>73845.25626031368</v>
+      </c>
+      <c r="I57">
+        <v>23150.172480303</v>
+      </c>
+      <c r="J57">
+        <v>22317.33713287437</v>
+      </c>
+      <c r="K57">
+        <v>30155.65322913981</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>2033</v>
+      </c>
+      <c r="G58">
+        <v>281397.3833513103</v>
+      </c>
+      <c r="H58">
+        <v>74462.73821074852</v>
+      </c>
+      <c r="I58">
+        <v>23186.8487968509</v>
+      </c>
+      <c r="J58">
+        <v>22349.66265736904</v>
+      </c>
+      <c r="K58">
+        <v>30185.98686272071</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>2034</v>
+      </c>
+      <c r="G59">
+        <v>281742.9849457401</v>
+      </c>
+      <c r="H59">
+        <v>75065.86170112045</v>
+      </c>
+      <c r="I59">
+        <v>23198.80940838883</v>
+      </c>
+      <c r="J59">
+        <v>22360.20442049119</v>
+      </c>
+      <c r="K59">
+        <v>30195.87904497739</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>2035</v>
+      </c>
+      <c r="G60">
+        <v>281983.4779961132</v>
+      </c>
+      <c r="H60">
+        <v>75553.53159015637</v>
+      </c>
+      <c r="I60">
+        <v>23202.70991535972</v>
+      </c>
+      <c r="J60">
+        <v>22363.642223016</v>
+      </c>
+      <c r="K60">
+        <v>30199.10501095138</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>2036</v>
+      </c>
+      <c r="G61">
+        <v>282150.8293862977</v>
+      </c>
+      <c r="H61">
+        <v>75900.47622151217</v>
+      </c>
+      <c r="I61">
+        <v>23203.98192010477</v>
+      </c>
+      <c r="J61">
+        <v>22364.76333397843</v>
+      </c>
+      <c r="K61">
+        <v>30200.15703933048</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>2037</v>
+      </c>
+      <c r="G62">
+        <v>282267.2838441426</v>
+      </c>
+      <c r="H62">
+        <v>76125.9106107461</v>
+      </c>
+      <c r="I62">
+        <v>23204.39673696922</v>
+      </c>
+      <c r="J62">
+        <v>22365.12894246844</v>
+      </c>
+      <c r="K62">
+        <v>30200.50011911476</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>2038</v>
+      </c>
+      <c r="G63">
+        <v>282348.3207613561</v>
+      </c>
+      <c r="H63">
+        <v>76267.78593033894</v>
+      </c>
+      <c r="I63">
+        <v>23204.5320140047</v>
+      </c>
+      <c r="J63">
+        <v>22365.24817202953</v>
+      </c>
+      <c r="K63">
+        <v>30200.61200177945</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>2039</v>
+      </c>
+      <c r="G64">
+        <v>282404.7117494986</v>
+      </c>
+      <c r="H64">
+        <v>76345.11079676997</v>
+      </c>
+      <c r="I64">
+        <v>23204.57612956001</v>
+      </c>
+      <c r="J64">
+        <v>22365.28705430011</v>
+      </c>
+      <c r="K64">
+        <v>30200.64848813403</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>2040</v>
+      </c>
+      <c r="G65">
+        <v>282443.9524271184</v>
+      </c>
+      <c r="H65">
+        <v>76400.46237600296</v>
+      </c>
+      <c r="I65">
+        <v>23204.59051620157</v>
+      </c>
+      <c r="J65">
+        <v>22365.29973430121</v>
+      </c>
+      <c r="K65">
+        <v>30200.66038679656</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>2041</v>
+      </c>
+      <c r="G66">
+        <v>282471.2587544376</v>
+      </c>
+      <c r="H66">
+        <v>76441.90040990498</v>
+      </c>
+      <c r="I66">
+        <v>23204.59520786768</v>
+      </c>
+      <c r="J66">
+        <v>22365.30386941023</v>
+      </c>
+      <c r="K66">
+        <v>30200.66426710117</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>2042</v>
+      </c>
+      <c r="G67">
+        <v>282490.2603506609</v>
+      </c>
+      <c r="H67">
+        <v>76471.91950030507</v>
+      </c>
+      <c r="I67">
+        <v>23204.59673787944</v>
+      </c>
+      <c r="J67">
+        <v>22365.30521792168</v>
+      </c>
+      <c r="K67">
+        <v>30200.66553251767</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>2043</v>
+      </c>
+      <c r="G68">
+        <v>282503.4829512256</v>
+      </c>
+      <c r="H68">
+        <v>76495.61122271633</v>
+      </c>
+      <c r="I68">
+        <v>23204.59723683566</v>
+      </c>
+      <c r="J68">
+        <v>22365.30565768834</v>
+      </c>
+      <c r="K68">
+        <v>30200.66594518603</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>2044</v>
+      </c>
+      <c r="G69">
+        <v>282512.6841343074</v>
+      </c>
+      <c r="H69">
+        <v>76518.55043667377</v>
+      </c>
+      <c r="I69">
+        <v>23204.5973995516</v>
+      </c>
+      <c r="J69">
+        <v>22365.30580110183</v>
+      </c>
+      <c r="K69">
+        <v>30200.66607976241</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>2045</v>
+      </c>
+      <c r="G70">
+        <v>282519.0869421127</v>
+      </c>
+      <c r="H70">
+        <v>76534.66211126774</v>
+      </c>
+      <c r="I70">
+        <v>23204.59745261534</v>
+      </c>
+      <c r="J70">
+        <v>22365.30584787078</v>
+      </c>
+      <c r="K70">
+        <v>30200.66612364947</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>2046</v>
+      </c>
+      <c r="G71">
+        <v>282523.5424504347</v>
+      </c>
+      <c r="H71">
+        <v>76545.98187689095</v>
+      </c>
+      <c r="I71">
+        <v>23204.59746992009</v>
+      </c>
+      <c r="J71">
+        <v>22365.30586312273</v>
+      </c>
+      <c r="K71">
+        <v>30200.66613796159</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>2047</v>
+      </c>
+      <c r="G72">
+        <v>282526.6428955848</v>
+      </c>
+      <c r="H72">
+        <v>76553.93711292875</v>
+      </c>
+      <c r="I72">
+        <v>23204.59747556339</v>
+      </c>
+      <c r="J72">
+        <v>22365.30586809658</v>
+      </c>
+      <c r="K72">
+        <v>30200.66614262896</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>2048</v>
+      </c>
+      <c r="G73">
+        <v>282528.8003957922</v>
+      </c>
+      <c r="H73">
+        <v>76559.52919639414</v>
+      </c>
+      <c r="I73">
+        <v>23204.59747740374</v>
+      </c>
+      <c r="J73">
+        <v>22365.30586971862</v>
+      </c>
+      <c r="K73">
+        <v>30200.66614415105</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>2049</v>
+      </c>
+      <c r="G74">
+        <v>282530.3017308972</v>
+      </c>
+      <c r="H74">
+        <v>76563.46095464876</v>
+      </c>
+      <c r="I74">
+        <v>23204.5974780039</v>
+      </c>
+      <c r="J74">
+        <v>22365.30587024759</v>
+      </c>
+      <c r="K74">
+        <v>30200.66614464742</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>2050</v>
+      </c>
+      <c r="G75">
+        <v>282531.3464617805</v>
+      </c>
+      <c r="H75">
+        <v>76566.22586862482</v>
+      </c>
+      <c r="I75">
+        <v>23204.59747819962</v>
+      </c>
+      <c r="J75">
+        <v>22365.30587042009</v>
+      </c>
+      <c r="K75">
+        <v>30200.66614480929</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>2051</v>
+      </c>
+      <c r="G76">
+        <v>282532.0734564501</v>
+      </c>
+      <c r="H76">
+        <v>76568.17054986693</v>
+      </c>
+      <c r="I76">
+        <v>23204.59747826345</v>
+      </c>
+      <c r="J76">
+        <v>22365.30587047634</v>
+      </c>
+      <c r="K76">
+        <v>30200.66614486208</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>2052</v>
+      </c>
+      <c r="G77">
+        <v>282532.5793486929</v>
+      </c>
+      <c r="H77">
+        <v>76569.53852645823</v>
+      </c>
+      <c r="I77">
+        <v>23204.59747828427</v>
+      </c>
+      <c r="J77">
+        <v>22365.30587049469</v>
+      </c>
+      <c r="K77">
+        <v>30200.6661448793</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>2053</v>
+      </c>
+      <c r="G78">
+        <v>282532.9313828576</v>
+      </c>
+      <c r="H78">
+        <v>76570.50094681064</v>
+      </c>
+      <c r="I78">
+        <v>23204.59747829105</v>
+      </c>
+      <c r="J78">
+        <v>22365.30587050067</v>
+      </c>
+      <c r="K78">
+        <v>30200.66614488491</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>2054</v>
+      </c>
+      <c r="G79">
+        <v>282533.176352127</v>
+      </c>
+      <c r="H79">
+        <v>76571.17812063261</v>
+      </c>
+      <c r="I79">
+        <v>23204.59747829327</v>
+      </c>
+      <c r="J79">
+        <v>22365.30587050262</v>
+      </c>
+      <c r="K79">
+        <v>30200.66614488674</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>2055</v>
+      </c>
+      <c r="G80">
+        <v>282533.3468183742</v>
+      </c>
+      <c r="H80">
+        <v>76571.65463815507</v>
+      </c>
+      <c r="I80">
+        <v>23204.59747829399</v>
+      </c>
+      <c r="J80">
+        <v>22365.30587050326</v>
+      </c>
+      <c r="K80">
+        <v>30200.66614488734</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>2056</v>
+      </c>
+      <c r="G81">
+        <v>282533.4654403611</v>
+      </c>
+      <c r="H81">
+        <v>76571.98998618343</v>
+      </c>
+      <c r="I81">
+        <v>23204.59747829423</v>
+      </c>
+      <c r="J81">
+        <v>22365.30587050347</v>
+      </c>
+      <c r="K81">
+        <v>30200.66614488754</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>2057</v>
+      </c>
+      <c r="G82">
+        <v>282533.5479855922</v>
+      </c>
+      <c r="H82">
+        <v>76572.22600478762</v>
+      </c>
+      <c r="I82">
+        <v>23204.5974782943</v>
+      </c>
+      <c r="J82">
+        <v>22365.30587050354</v>
+      </c>
+      <c r="K82">
+        <v>30200.6661448876</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>2058</v>
+      </c>
+      <c r="G83">
+        <v>282533.6054261674</v>
+      </c>
+      <c r="H83">
+        <v>76572.3921264578</v>
+      </c>
+      <c r="I83">
+        <v>23204.59747829433</v>
+      </c>
+      <c r="J83">
+        <v>22365.30587050356</v>
+      </c>
+      <c r="K83">
+        <v>30200.66614488762</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>2059</v>
+      </c>
+      <c r="G84">
+        <v>282533.6453972191</v>
+      </c>
+      <c r="H84">
+        <v>76572.50905818443</v>
+      </c>
+      <c r="I84">
+        <v>23204.59747829433</v>
+      </c>
+      <c r="J84">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K84">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>2060</v>
+      </c>
+      <c r="G85">
+        <v>282533.6732117902</v>
+      </c>
+      <c r="H85">
+        <v>76572.59136983944</v>
+      </c>
+      <c r="I85">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J85">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K85">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>2061</v>
+      </c>
+      <c r="G86">
+        <v>282533.6925670569</v>
+      </c>
+      <c r="H86">
+        <v>76572.64931410347</v>
+      </c>
+      <c r="I86">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J86">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K86">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>2062</v>
+      </c>
+      <c r="G87">
+        <v>282533.7060357655</v>
+      </c>
+      <c r="H87">
+        <v>76572.69010631871</v>
+      </c>
+      <c r="I87">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J87">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K87">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>2063</v>
+      </c>
+      <c r="G88">
+        <v>282533.7154082072</v>
+      </c>
+      <c r="H88">
+        <v>76572.71882468434</v>
+      </c>
+      <c r="I88">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J88">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K88">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>2064</v>
+      </c>
+      <c r="G89">
+        <v>282533.7219301884</v>
+      </c>
+      <c r="H89">
+        <v>76572.73904350698</v>
+      </c>
+      <c r="I89">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J89">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K89">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>2065</v>
+      </c>
+      <c r="G90">
+        <v>282533.7264686257</v>
+      </c>
+      <c r="H90">
+        <v>76572.75327872313</v>
+      </c>
+      <c r="I90">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J90">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K90">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>2066</v>
+      </c>
+      <c r="G91">
+        <v>282533.7296267783</v>
+      </c>
+      <c r="H91">
+        <v>76572.76330138036</v>
+      </c>
+      <c r="I91">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J91">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K91">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>2067</v>
+      </c>
+      <c r="G92">
+        <v>282533.7318244354</v>
+      </c>
+      <c r="H92">
+        <v>76572.77035823246</v>
+      </c>
+      <c r="I92">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J92">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K92">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>2068</v>
+      </c>
+      <c r="G93">
+        <v>282533.7333537144</v>
+      </c>
+      <c r="H93">
+        <v>76572.77532698492</v>
+      </c>
+      <c r="I93">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J93">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K93">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>2069</v>
+      </c>
+      <c r="G94">
+        <v>282533.7344178905</v>
+      </c>
+      <c r="H94">
+        <v>76572.77882555776</v>
+      </c>
+      <c r="I94">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J94">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K94">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>2070</v>
+      </c>
+      <c r="G95">
+        <v>282533.7351584165</v>
+      </c>
+      <c r="H95">
+        <v>76572.78128899112</v>
+      </c>
+      <c r="I95">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J95">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K95">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>2071</v>
+      </c>
+      <c r="G96">
+        <v>282533.7356737247</v>
+      </c>
+      <c r="H96">
+        <v>76572.78302357897</v>
+      </c>
+      <c r="I96">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J96">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K96">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>2072</v>
+      </c>
+      <c r="G97">
+        <v>282533.7360323112</v>
+      </c>
+      <c r="H97">
+        <v>76572.78424497551</v>
+      </c>
+      <c r="I97">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J97">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K97">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>2073</v>
+      </c>
+      <c r="G98">
+        <v>282533.73628184</v>
+      </c>
+      <c r="H98">
+        <v>76572.78510502093</v>
+      </c>
+      <c r="I98">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J98">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K98">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>2074</v>
+      </c>
+      <c r="G99">
+        <v>282533.7364554791</v>
+      </c>
+      <c r="H99">
+        <v>76572.7857106265</v>
+      </c>
+      <c r="I99">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J99">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K99">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>2075</v>
+      </c>
+      <c r="G100">
+        <v>282533.736576309</v>
+      </c>
+      <c r="H100">
+        <v>76572.78613707022</v>
+      </c>
+      <c r="I100">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J100">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K100">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>2076</v>
+      </c>
+      <c r="G101">
+        <v>282533.7366603906</v>
+      </c>
+      <c r="H101">
+        <v>76572.78643735715</v>
+      </c>
+      <c r="I101">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J101">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K101">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>2077</v>
+      </c>
+      <c r="G102">
+        <v>282533.7367189003</v>
+      </c>
+      <c r="H102">
+        <v>76572.78664881013</v>
+      </c>
+      <c r="I102">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J102">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K102">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>2078</v>
+      </c>
+      <c r="G103">
+        <v>282533.7367596153</v>
+      </c>
+      <c r="H103">
+        <v>76572.78679770966</v>
+      </c>
+      <c r="I103">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J103">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K103">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>2079</v>
+      </c>
+      <c r="G104">
+        <v>282533.7367879475</v>
+      </c>
+      <c r="H104">
+        <v>76572.78690256125</v>
+      </c>
+      <c r="I104">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J104">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K104">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>2080</v>
+      </c>
+      <c r="G105">
+        <v>282533.7368076631</v>
+      </c>
+      <c r="H105">
+        <v>76572.78697639558</v>
+      </c>
+      <c r="I105">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J105">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K105">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>2081</v>
+      </c>
+      <c r="G106">
+        <v>282533.7368213825</v>
+      </c>
+      <c r="H106">
+        <v>76572.78702838837</v>
+      </c>
+      <c r="I106">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J106">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K106">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>2082</v>
+      </c>
+      <c r="G107">
+        <v>282533.7368309294</v>
+      </c>
+      <c r="H107">
+        <v>76572.78706500087</v>
+      </c>
+      <c r="I107">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J107">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K107">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>2083</v>
+      </c>
+      <c r="G108">
+        <v>282533.7368375727</v>
+      </c>
+      <c r="H108">
+        <v>76572.78709078289</v>
+      </c>
+      <c r="I108">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J108">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K108">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>2084</v>
+      </c>
+      <c r="G109">
+        <v>282533.7368421956</v>
+      </c>
+      <c r="H109">
+        <v>76572.78710893827</v>
+      </c>
+      <c r="I109">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J109">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K109">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>2085</v>
+      </c>
+      <c r="G110">
+        <v>282533.7368454126</v>
+      </c>
+      <c r="H110">
+        <v>76572.7871217231</v>
+      </c>
+      <c r="I110">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J110">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K110">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>2086</v>
+      </c>
+      <c r="G111">
+        <v>282533.7368476511</v>
+      </c>
+      <c r="H111">
+        <v>76572.78713072605</v>
+      </c>
+      <c r="I111">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J111">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K111">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>2087</v>
+      </c>
+      <c r="G112">
+        <v>282533.7368492089</v>
+      </c>
+      <c r="H112">
+        <v>76572.78713706585</v>
+      </c>
+      <c r="I112">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J112">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K112">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>2088</v>
+      </c>
+      <c r="G113">
+        <v>282533.7368502929</v>
+      </c>
+      <c r="H113">
+        <v>76572.78714153029</v>
+      </c>
+      <c r="I113">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J113">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K113">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>2089</v>
+      </c>
+      <c r="G114">
+        <v>282533.7368510472</v>
+      </c>
+      <c r="H114">
+        <v>76572.78714467412</v>
+      </c>
+      <c r="I114">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J114">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K114">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>2090</v>
+      </c>
+      <c r="G115">
+        <v>282533.7368515721</v>
+      </c>
+      <c r="H115">
+        <v>76572.78714688799</v>
+      </c>
+      <c r="I115">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J115">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K115">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>2091</v>
+      </c>
+      <c r="G116">
+        <v>282533.7368519373</v>
+      </c>
+      <c r="H116">
+        <v>76572.78714844699</v>
+      </c>
+      <c r="I116">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J116">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K116">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>2092</v>
+      </c>
+      <c r="G117">
+        <v>282533.7368521915</v>
+      </c>
+      <c r="H117">
+        <v>76572.78714954483</v>
+      </c>
+      <c r="I117">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J117">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K117">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>2093</v>
+      </c>
+      <c r="G118">
+        <v>282533.7368523684</v>
+      </c>
+      <c r="H118">
+        <v>76572.78715031792</v>
+      </c>
+      <c r="I118">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J118">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K118">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>2094</v>
+      </c>
+      <c r="G119">
+        <v>282533.7368524915</v>
+      </c>
+      <c r="H119">
+        <v>76572.78715086234</v>
+      </c>
+      <c r="I119">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J119">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K119">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>2095</v>
+      </c>
+      <c r="G120">
+        <v>282533.7368525771</v>
+      </c>
+      <c r="H120">
+        <v>76572.78715124572</v>
+      </c>
+      <c r="I120">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J120">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K120">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>2096</v>
+      </c>
+      <c r="G121">
+        <v>282533.7368526367</v>
+      </c>
+      <c r="H121">
+        <v>76572.78715151567</v>
+      </c>
+      <c r="I121">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J121">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K121">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>2097</v>
+      </c>
+      <c r="G122">
+        <v>282533.7368526782</v>
+      </c>
+      <c r="H122">
+        <v>76572.78715170578</v>
+      </c>
+      <c r="I122">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J122">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K122">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>2098</v>
+      </c>
+      <c r="G123">
+        <v>282533.7368527071</v>
+      </c>
+      <c r="H123">
+        <v>76572.78715183967</v>
+      </c>
+      <c r="I123">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J123">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K123">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>2099</v>
+      </c>
+      <c r="G124">
+        <v>282533.7368527271</v>
+      </c>
+      <c r="H124">
+        <v>76572.78715193395</v>
+      </c>
+      <c r="I124">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J124">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K124">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>2100</v>
+      </c>
+      <c r="G125">
+        <v>282533.7368527411</v>
+      </c>
+      <c r="H125">
+        <v>76572.78715200034</v>
+      </c>
+      <c r="I125">
+        <v>23204.59747829434</v>
+      </c>
+      <c r="J125">
+        <v>22365.30587050357</v>
+      </c>
+      <c r="K125">
+        <v>30200.66614488763</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Catch_Pollock_total</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Catch_ATF_total</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Catch_Pcod_trawl</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Catch_Pcod_longline</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Catch_Pcod_pot</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Projected_catch_Pollock_total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Projected_catch_ATF_total</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Projected_catch_Pcod_trawl</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Projected_catch_Pcod_longline</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Projected_catch_Pcod_pot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1977</v>
+      </c>
+      <c r="B2">
+        <v>118091.8206257413</v>
+      </c>
+      <c r="C2">
+        <v>9449</v>
+      </c>
+      <c r="D2">
+        <v>653</v>
+      </c>
+      <c r="E2">
+        <v>1615</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>117849.7996433308</v>
       </c>
       <c r="H2">
